--- a/data/trans_orig/IP44S3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP44S3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D686E1CE-B58B-49F7-AE1C-AD68C9B73458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{215556E4-EC6D-4E25-B2C1-A5978FAF19B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41EDBABB-9E38-42D1-8F9C-08A2F698183B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B247B3DB-96F0-4C59-B607-BD8E9C6A17A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E28A3CD-1B1D-48A7-A6A7-2C396FAA9A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE147EB-4B8E-4FE3-82E6-1432BCFE43E3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
